--- a/Assets/Resources/Data/SpellCardData.xlsx
+++ b/Assets/Resources/Data/SpellCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\genpai\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C07633-8B25-4DE2-B291-EBA1318F787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C3D3B-200C-496B-93A6-B946FEDC0A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>ElementBuffAppendix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +604,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -652,6 +660,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -679,6 +690,9 @@
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -918,6 +932,9 @@
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>

--- a/Assets/Resources/Data/SpellCardData.xlsx
+++ b/Assets/Resources/Data/SpellCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\genpai\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C3D3B-200C-496B-93A6-B946FEDC0A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA031DA-69E6-478E-A194-58D62E787814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Self,All</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对目标造成1点AOE伤害
 雷：对目标造成1点雷属性AOE伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -265,6 +261,10 @@
   </si>
   <si>
     <t>治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfAll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +604,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -626,34 +626,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -955,10 +955,10 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -1071,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1102,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1111,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1131,7 +1131,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1151,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/SpellCardData.xlsx
+++ b/Assets/Resources/Data/SpellCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\genpai\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA031DA-69E6-478E-A194-58D62E787814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A03F0-6C48-49F6-B19D-63E2DF7BEDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -756,6 +756,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
